--- a/chapter 1/Editing.xlsx
+++ b/chapter 1/Editing.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E91C9B6B-35A6-4A80-BBF4-2FC862E21511}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050A1587-B74F-A246-A416-82539B179D9D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20895" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="20900" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -440,26 +440,26 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2017</v>
       </c>
@@ -467,11 +467,11 @@
         <v>1602000</v>
       </c>
       <c r="D3" s="4">
-        <f>SUM(A3:B4)</f>
-        <v>3551035</v>
+        <f>SUM(B3:B4)</f>
+        <v>3547000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2018</v>
       </c>
